--- a/OpenpyxlTEST/test3.xlsx
+++ b/OpenpyxlTEST/test3.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,10 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,12 +357,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="1:1">
+    <row r="4">
       <c r="A4" s="1" t="n">
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5">
       <c r="A5" s="2" t="n">
         <v>-222</v>
       </c>
